--- a/inst/extdata/data_dictionary_Banff_2024_02_23.xlsx
+++ b/inst/extdata/data_dictionary_Banff_2024_02_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/684276df0d08ce70/Bureau/R/lakebanff/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Bureau\R\banffIT\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2016" documentId="11_68F68F7C8275434163F1C93C2E0FF62340D1E1FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE80D60-BB90-478C-8C19-7016C6800A73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D38E44-714B-45B4-9C4F-61076A9D81E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="0" windowWidth="10956" windowHeight="12336" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="729">
   <si>
     <t>type_bx</t>
   </si>
@@ -1026,9 +1026,6 @@
   </si>
   <si>
     <t>NA accepted or not</t>
-  </si>
-  <si>
-    <t>contraintes</t>
   </si>
   <si>
     <t>Classification date</t>
@@ -1990,15 +1987,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>1900 à auj</t>
-  </si>
-  <si>
-    <t>NA if arteries et glomerulies ne le sont pas toutes les deux
-"Adequate":  &gt;= 10 glomeruli AND &gt;= 2 arteries 
-"Minimal": &gt;7 and &lt;10 glomeruli AND 1 artery
-"Inadequate": if none of the above criteria are met</t>
-  </si>
-  <si>
     <t>hist_dsa_calculated</t>
   </si>
   <si>
@@ -2024,12 +2012,6 @@
   </si>
   <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>0 et 100</t>
-  </si>
-  <si>
-    <t>NA si microscopy = 0</t>
   </si>
   <si>
     <t>Minimal</t>
@@ -2165,9 +2147,6 @@
   </si>
   <si>
     <t>श्रेणी 6.8: दवा-प्रेरित अंतरालीय नेफ्रैटिस</t>
-  </si>
-  <si>
-    <t>primary (patient_id, centre, biopsy_id,sc_date_bx)</t>
   </si>
   <si>
     <t>None</t>
@@ -2321,6 +2300,24 @@
   </si>
   <si>
     <t>Susp_C4Dneg_CAMR</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (patient_id, centre, biopsy_id,sc_date_bx)</t>
+  </si>
+  <si>
+    <t>1900 to today</t>
+  </si>
+  <si>
+    <t>NA if both arteries et glomerulies are not
+"Adequate":  &gt;= 10 glomeruli AND &gt;= 2 arteries 
+"Minimal": &gt;7 and &lt;10 glomeruli AND 1 artery
+"Inadequate": if none of the above criteria are met</t>
+  </si>
+  <si>
+    <t>Between 0 and 100</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2504,10 +2501,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2516,6 +2509,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2532,10 +2547,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2814,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -2822,7 +2833,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2830,7 +2841,7 @@
         <v>45352</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2842,9 +2853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2875,10 +2886,10 @@
         <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>166</v>
@@ -2886,8 +2897,8 @@
       <c r="H1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>327</v>
+      <c r="I1" s="34" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2913,10 +2924,10 @@
         <v>288</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>698</v>
+        <v>638</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2942,10 +2953,10 @@
         <v>288</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2971,10 +2982,10 @@
         <v>288</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3000,10 +3011,10 @@
         <v>289</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3029,10 +3040,10 @@
         <v>289</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3058,10 +3069,10 @@
         <v>290</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>699</v>
+        <v>639</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3087,10 +3098,10 @@
         <v>290</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3116,10 +3127,10 @@
         <v>290</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3145,10 +3156,10 @@
         <v>290</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3174,10 +3185,10 @@
         <v>290</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3203,10 +3214,10 @@
         <v>290</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3232,10 +3243,10 @@
         <v>290</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3261,10 +3272,10 @@
         <v>290</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,10 +3301,10 @@
         <v>290</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3319,10 +3330,10 @@
         <v>290</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3348,10 +3359,10 @@
         <v>290</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3377,10 +3388,10 @@
         <v>290</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3406,10 +3417,10 @@
         <v>290</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3435,10 +3446,10 @@
         <v>290</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3464,10 +3475,10 @@
         <v>290</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3493,10 +3504,10 @@
         <v>290</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3522,10 +3533,10 @@
         <v>290</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3551,10 +3562,10 @@
         <v>288</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3580,10 +3591,10 @@
         <v>290</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3609,10 +3620,10 @@
         <v>290</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3638,10 +3649,10 @@
         <v>290</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3667,10 +3678,10 @@
         <v>290</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3696,10 +3707,10 @@
         <v>290</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3725,10 +3736,10 @@
         <v>290</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3754,10 +3765,10 @@
         <v>290</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3783,10 +3794,10 @@
         <v>290</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3809,13 +3820,13 @@
         <v>24</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>652</v>
+        <v>638</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3841,10 +3852,10 @@
         <v>290</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3870,10 +3881,10 @@
         <v>290</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3899,10 +3910,10 @@
         <v>290</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3928,10 +3939,10 @@
         <v>290</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3957,10 +3968,10 @@
         <v>290</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3986,10 +3997,10 @@
         <v>290</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4015,10 +4026,10 @@
         <v>290</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4044,10 +4055,10 @@
         <v>290</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4073,10 +4084,10 @@
         <v>290</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4102,10 +4113,10 @@
         <v>290</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4130,11 +4141,11 @@
       <c r="G44" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>653</v>
+      <c r="H44" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4160,10 +4171,10 @@
         <v>290</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4189,10 +4200,10 @@
         <v>290</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4218,10 +4229,10 @@
         <v>290</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4247,10 +4258,10 @@
         <v>290</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4276,10 +4287,10 @@
         <v>290</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>699</v>
+        <v>639</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,7 +4301,7 @@
         <v>314</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>24</v>
@@ -4305,10 +4316,10 @@
         <v>290</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4319,7 +4330,7 @@
         <v>315</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>24</v>
@@ -4334,10 +4345,10 @@
         <v>290</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4363,10 +4374,10 @@
         <v>290</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4374,10 +4385,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>24</v>
@@ -4386,16 +4397,16 @@
         <v>23</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4421,10 +4432,10 @@
         <v>290</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4450,10 +4461,10 @@
         <v>290</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4461,10 +4472,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C56" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>24</v>
@@ -4473,16 +4484,16 @@
         <v>23</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4490,10 +4501,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>650</v>
+      </c>
+      <c r="C57" t="s">
         <v>655</v>
-      </c>
-      <c r="C57" t="s">
-        <v>660</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>24</v>
@@ -4502,16 +4513,16 @@
         <v>23</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4519,10 +4530,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C58" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>24</v>
@@ -4531,16 +4542,16 @@
         <v>23</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4548,10 +4559,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>24</v>
@@ -4560,16 +4571,16 @@
         <v>23</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4577,10 +4588,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C60" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>24</v>
@@ -4589,16 +4600,16 @@
         <v>23</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4606,10 +4617,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C61" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>24</v>
@@ -4618,16 +4629,16 @@
         <v>23</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4635,10 +4646,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>24</v>
@@ -4647,16 +4658,16 @@
         <v>23</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4664,10 +4675,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C63" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>24</v>
@@ -4676,16 +4687,16 @@
         <v>23</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4693,10 +4704,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C64" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>24</v>
@@ -4705,16 +4716,16 @@
         <v>23</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4722,10 +4733,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C65" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>24</v>
@@ -4734,16 +4745,16 @@
         <v>23</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4751,10 +4762,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>24</v>
@@ -4763,16 +4774,16 @@
         <v>23</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4780,10 +4791,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>24</v>
@@ -4792,16 +4803,16 @@
         <v>23</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4809,10 +4820,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C68" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>24</v>
@@ -4821,16 +4832,16 @@
         <v>23</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4838,10 +4849,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>24</v>
@@ -4850,16 +4861,16 @@
         <v>23</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4867,10 +4878,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>24</v>
@@ -4879,16 +4890,16 @@
         <v>23</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4896,10 +4907,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>24</v>
@@ -4908,16 +4919,16 @@
         <v>23</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4925,10 +4936,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>24</v>
@@ -4937,16 +4948,16 @@
         <v>23</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4954,10 +4965,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>24</v>
@@ -4966,16 +4977,16 @@
         <v>23</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4983,10 +4994,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>23</v>
@@ -4995,16 +5006,16 @@
         <v>23</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5012,10 +5023,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>23</v>
@@ -5024,16 +5035,16 @@
         <v>23</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5041,10 +5052,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>24</v>
@@ -5059,10 +5070,10 @@
         <v>290</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5070,10 +5081,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C77" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>23</v>
@@ -5082,16 +5093,16 @@
         <v>23</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5099,10 +5110,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>23</v>
@@ -5111,16 +5122,16 @@
         <v>23</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5128,10 +5139,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C79" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>23</v>
@@ -5140,16 +5151,16 @@
         <v>23</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5157,10 +5168,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>24</v>
@@ -5175,10 +5186,10 @@
         <v>290</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5186,10 +5197,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>24</v>
@@ -5198,16 +5209,16 @@
         <v>23</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5215,10 +5226,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>24</v>
@@ -5227,16 +5238,16 @@
         <v>23</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5244,10 +5255,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C83" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>24</v>
@@ -5256,16 +5267,16 @@
         <v>23</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5273,10 +5284,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C84" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>24</v>
@@ -5285,16 +5296,16 @@
         <v>23</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5302,10 +5313,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>24</v>
@@ -5314,16 +5325,16 @@
         <v>23</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5331,10 +5342,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>24</v>
@@ -5343,16 +5354,16 @@
         <v>23</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5360,10 +5371,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>24</v>
@@ -5372,16 +5383,16 @@
         <v>23</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5389,10 +5400,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C88" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>24</v>
@@ -5401,16 +5412,16 @@
         <v>23</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5418,10 +5429,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>24</v>
@@ -5430,16 +5441,16 @@
         <v>23</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5447,10 +5458,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>24</v>
@@ -5459,16 +5470,16 @@
         <v>23</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5476,10 +5487,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>24</v>
@@ -5488,16 +5499,16 @@
         <v>23</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5505,10 +5516,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>24</v>
@@ -5517,16 +5528,16 @@
         <v>23</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5534,10 +5545,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>23</v>
@@ -5546,16 +5557,16 @@
         <v>23</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5563,10 +5574,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C94" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>23</v>
@@ -5575,16 +5586,16 @@
         <v>23</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5592,10 +5603,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>24</v>
@@ -5610,10 +5621,10 @@
         <v>290</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5621,10 +5632,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C96" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>23</v>
@@ -5633,16 +5644,16 @@
         <v>23</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5650,10 +5661,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C97" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>23</v>
@@ -5662,16 +5673,16 @@
         <v>23</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5679,10 +5690,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>24</v>
@@ -5697,10 +5708,10 @@
         <v>290</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5708,10 +5719,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C99" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>24</v>
@@ -5720,16 +5731,16 @@
         <v>23</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5737,10 +5748,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C100" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>24</v>
@@ -5749,16 +5760,16 @@
         <v>23</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5766,10 +5777,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C101" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>24</v>
@@ -5778,16 +5789,16 @@
         <v>23</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5795,10 +5806,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C102" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>24</v>
@@ -5807,16 +5818,16 @@
         <v>23</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5824,10 +5835,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C103" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>24</v>
@@ -5836,16 +5847,16 @@
         <v>23</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5853,10 +5864,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C104" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>24</v>
@@ -5865,16 +5876,16 @@
         <v>23</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5882,10 +5893,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C105" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>24</v>
@@ -5900,10 +5911,10 @@
         <v>290</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5911,10 +5922,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C106" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>24</v>
@@ -5929,10 +5940,10 @@
         <v>290</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5940,10 +5951,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>24</v>
@@ -5958,10 +5969,10 @@
         <v>290</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5969,10 +5980,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C108" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>24</v>
@@ -5987,10 +5998,10 @@
         <v>290</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5998,10 +6009,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C109" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>24</v>
@@ -6016,10 +6027,10 @@
         <v>290</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6027,10 +6038,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C110" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>24</v>
@@ -6045,10 +6056,10 @@
         <v>290</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6056,10 +6067,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C111" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>24</v>
@@ -6074,10 +6085,10 @@
         <v>290</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6085,10 +6096,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C112" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>24</v>
@@ -6103,10 +6114,10 @@
         <v>290</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6114,10 +6125,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C113" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>24</v>
@@ -6132,10 +6143,10 @@
         <v>290</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6143,10 +6154,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>24</v>
@@ -6161,10 +6172,10 @@
         <v>290</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6172,10 +6183,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C115" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>24</v>
@@ -6190,10 +6201,10 @@
         <v>290</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6201,10 +6212,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C116" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>24</v>
@@ -6219,10 +6230,10 @@
         <v>290</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6230,10 +6241,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>24</v>
@@ -6248,10 +6259,10 @@
         <v>290</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6259,10 +6270,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>24</v>
@@ -6277,10 +6288,10 @@
         <v>290</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6288,10 +6299,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C119" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>24</v>
@@ -6306,10 +6317,10 @@
         <v>290</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6317,10 +6328,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C120" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>24</v>
@@ -6335,10 +6346,10 @@
         <v>290</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6400,9 +6411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D222" sqref="D222"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6411,7 +6422,8 @@
     <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
     <col min="3" max="3" width="40.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="10" width="8.6640625" style="30"/>
+    <col min="11" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6425,25 +6437,25 @@
         <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="E1" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>635</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6496,10 +6508,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6664,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6678,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6720,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6734,10 +6746,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6781,12 +6793,12 @@
       <c r="D25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6802,12 +6814,12 @@
       <c r="D26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6823,12 +6835,12 @@
       <c r="D27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6844,12 +6856,12 @@
       <c r="D28" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6865,12 +6877,12 @@
       <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6886,12 +6898,12 @@
       <c r="D30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6907,12 +6919,12 @@
       <c r="D31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6928,12 +6940,12 @@
       <c r="D32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6949,12 +6961,12 @@
       <c r="D33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6970,12 +6982,12 @@
       <c r="D34" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6991,12 +7003,12 @@
       <c r="D35" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7012,12 +7024,12 @@
       <c r="D36" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7033,12 +7045,12 @@
       <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7054,12 +7066,12 @@
       <c r="D38" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7075,12 +7087,12 @@
       <c r="D39" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7096,12 +7108,12 @@
       <c r="D40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7117,12 +7129,12 @@
       <c r="D41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7138,12 +7150,12 @@
       <c r="D42" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7159,12 +7171,12 @@
       <c r="D43" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7180,12 +7192,12 @@
       <c r="D44" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7201,12 +7213,12 @@
       <c r="D45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7222,12 +7234,12 @@
       <c r="D46" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7243,12 +7255,12 @@
       <c r="D47" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7264,12 +7276,12 @@
       <c r="D48" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7285,12 +7297,12 @@
       <c r="D49" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7306,12 +7318,12 @@
       <c r="D50" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7327,12 +7339,12 @@
       <c r="D51" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7348,12 +7360,12 @@
       <c r="D52" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7369,12 +7381,12 @@
       <c r="D53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7390,12 +7402,12 @@
       <c r="D54" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7411,12 +7423,12 @@
       <c r="D55" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7432,12 +7444,12 @@
       <c r="D56" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7453,12 +7465,12 @@
       <c r="D57" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7474,12 +7486,12 @@
       <c r="D58" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7495,12 +7507,12 @@
       <c r="D59" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7516,12 +7528,12 @@
       <c r="D60" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7537,12 +7549,12 @@
       <c r="D61" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7558,12 +7570,12 @@
       <c r="D62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7579,12 +7591,12 @@
       <c r="D63" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7600,12 +7612,12 @@
       <c r="D64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7621,12 +7633,12 @@
       <c r="D65" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7642,12 +7654,12 @@
       <c r="D66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7663,12 +7675,12 @@
       <c r="D67" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7684,12 +7696,12 @@
       <c r="D68" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7705,12 +7717,12 @@
       <c r="D69" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7726,12 +7738,12 @@
       <c r="D70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7747,12 +7759,12 @@
       <c r="D71" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7768,12 +7780,12 @@
       <c r="D72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7789,12 +7801,12 @@
       <c r="D73" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7810,12 +7822,12 @@
       <c r="D74" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7831,12 +7843,12 @@
       <c r="D75" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7852,12 +7864,12 @@
       <c r="D76" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7873,12 +7885,12 @@
       <c r="D77" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7889,17 +7901,17 @@
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7910,17 +7922,17 @@
         <v>1</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7931,17 +7943,17 @@
         <v>2</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7957,12 +7969,12 @@
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7978,12 +7990,12 @@
       <c r="D82" s="3">
         <v>1</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7994,17 +8006,17 @@
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8020,12 +8032,12 @@
       <c r="D84" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8041,12 +8053,12 @@
       <c r="D85" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8062,12 +8074,12 @@
       <c r="D86" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8083,12 +8095,12 @@
       <c r="D87" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8104,12 +8116,12 @@
       <c r="D88" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8125,12 +8137,12 @@
       <c r="D89" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8146,12 +8158,12 @@
       <c r="D90" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8167,12 +8179,12 @@
       <c r="D91" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8188,12 +8200,12 @@
       <c r="D92" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8209,12 +8221,12 @@
       <c r="D93" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8230,12 +8242,12 @@
       <c r="D94" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8251,12 +8263,12 @@
       <c r="D95" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8272,12 +8284,12 @@
       <c r="D96" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8293,12 +8305,12 @@
       <c r="D97" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8314,12 +8326,12 @@
       <c r="D98" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8335,12 +8347,12 @@
       <c r="D99" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8356,12 +8368,12 @@
       <c r="D100" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8377,12 +8389,12 @@
       <c r="D101" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8398,12 +8410,12 @@
       <c r="D102" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8419,12 +8431,12 @@
       <c r="D103" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8440,12 +8452,12 @@
       <c r="D104" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8461,12 +8473,12 @@
       <c r="D105" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8482,12 +8494,12 @@
       <c r="D106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8503,12 +8515,12 @@
       <c r="D107" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8524,12 +8536,12 @@
       <c r="D108" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8545,12 +8557,12 @@
       <c r="D109" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8566,12 +8578,12 @@
       <c r="D110" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8587,12 +8599,12 @@
       <c r="D111" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8608,12 +8620,12 @@
       <c r="D112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8629,12 +8641,12 @@
       <c r="D113" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8650,12 +8662,12 @@
       <c r="D114" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8671,12 +8683,12 @@
       <c r="D115" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8692,12 +8704,12 @@
       <c r="D116" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8713,12 +8725,12 @@
       <c r="D117" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8734,12 +8746,12 @@
       <c r="D118" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8755,12 +8767,12 @@
       <c r="D119" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8776,12 +8788,12 @@
       <c r="D120" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8797,12 +8809,12 @@
       <c r="D121" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8818,12 +8830,12 @@
       <c r="D122" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8839,12 +8851,12 @@
       <c r="D123" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8860,38 +8872,38 @@
       <c r="D124" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="27" t="s">
         <v>316</v>
       </c>
       <c r="B125" s="21">
         <v>1</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="30"/>
-      <c r="J125" s="30"/>
-      <c r="K125" s="30"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="28"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B126" s="8">
         <v>1</v>
@@ -8900,26 +8912,26 @@
         <v>33</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B127" s="8">
         <v>2</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B128" s="8">
         <v>3</v>
@@ -8928,7 +8940,7 @@
         <v>34</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8942,14 +8954,14 @@
         <v>117</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8963,14 +8975,14 @@
         <v>118</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+        <v>716</v>
+      </c>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8981,16 +8993,17 @@
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9001,77 +9014,78 @@
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="E132" s="32"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B134" s="10">
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B135" s="10">
         <v>2</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B136" s="10">
         <v>3</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B137" s="10">
         <v>0</v>
@@ -9085,7 +9099,7 @@
     </row>
     <row r="138" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B138" s="10">
         <v>1</v>
@@ -9099,7 +9113,7 @@
     </row>
     <row r="139" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B139" s="10">
         <v>0</v>
@@ -9113,7 +9127,7 @@
     </row>
     <row r="140" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B140" s="10">
         <v>1</v>
@@ -9127,7 +9141,7 @@
     </row>
     <row r="141" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -9141,7 +9155,7 @@
     </row>
     <row r="142" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B142" s="10">
         <v>1</v>
@@ -9155,7 +9169,7 @@
     </row>
     <row r="143" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -9169,7 +9183,7 @@
     </row>
     <row r="144" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B144" s="10">
         <v>1</v>
@@ -9183,7 +9197,7 @@
     </row>
     <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -9197,7 +9211,7 @@
     </row>
     <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B146" s="10">
         <v>1</v>
@@ -9211,7 +9225,7 @@
     </row>
     <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -9225,7 +9239,7 @@
     </row>
     <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B148" s="10">
         <v>1</v>
@@ -9239,7 +9253,7 @@
     </row>
     <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -9253,7 +9267,7 @@
     </row>
     <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B150" s="10">
         <v>1</v>
@@ -9267,7 +9281,7 @@
     </row>
     <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -9281,7 +9295,7 @@
     </row>
     <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B152" s="10">
         <v>1</v>
@@ -9295,7 +9309,7 @@
     </row>
     <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -9309,7 +9323,7 @@
     </row>
     <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B154" s="10">
         <v>1</v>
@@ -9323,7 +9337,7 @@
     </row>
     <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -9337,7 +9351,7 @@
     </row>
     <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B156" s="10">
         <v>1</v>
@@ -9351,7 +9365,7 @@
     </row>
     <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -9365,7 +9379,7 @@
     </row>
     <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B158" s="10">
         <v>1</v>
@@ -9379,7 +9393,7 @@
     </row>
     <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -9393,7 +9407,7 @@
     </row>
     <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B160" s="10">
         <v>1</v>
@@ -9407,7 +9421,7 @@
     </row>
     <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -9421,7 +9435,7 @@
     </row>
     <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B162" s="10">
         <v>1</v>
@@ -9435,7 +9449,7 @@
     </row>
     <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -9449,7 +9463,7 @@
     </row>
     <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B164" s="10">
         <v>1</v>
@@ -9463,7 +9477,7 @@
     </row>
     <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -9477,7 +9491,7 @@
     </row>
     <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B166" s="10">
         <v>1</v>
@@ -9491,7 +9505,7 @@
     </row>
     <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -9505,7 +9519,7 @@
     </row>
     <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B168" s="10">
         <v>1</v>
@@ -9519,7 +9533,7 @@
     </row>
     <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -9533,7 +9547,7 @@
     </row>
     <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B170" s="10">
         <v>1</v>
@@ -9547,7 +9561,7 @@
     </row>
     <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B171" s="10">
         <v>0</v>
@@ -9561,7 +9575,7 @@
     </row>
     <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B172" s="10">
         <v>1</v>
@@ -9575,7 +9589,7 @@
     </row>
     <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B173" s="10">
         <v>0</v>
@@ -9589,7 +9603,7 @@
     </row>
     <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B174" s="10">
         <v>1</v>
@@ -9603,7 +9617,7 @@
     </row>
     <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B175" s="10">
         <v>0</v>
@@ -9617,7 +9631,7 @@
     </row>
     <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B176" s="10">
         <v>1</v>
@@ -9631,7 +9645,7 @@
     </row>
     <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B177" s="10">
         <v>0</v>
@@ -9645,7 +9659,7 @@
     </row>
     <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B178" s="10">
         <v>1</v>
@@ -9659,7 +9673,7 @@
     </row>
     <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B179" s="10">
         <v>0</v>
@@ -9673,7 +9687,7 @@
     </row>
     <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B180" s="10">
         <v>1</v>
@@ -9687,7 +9701,7 @@
     </row>
     <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B181" s="10">
         <v>0</v>
@@ -9701,7 +9715,7 @@
     </row>
     <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B182" s="10">
         <v>1</v>
@@ -9715,7 +9729,7 @@
     </row>
     <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B183" s="10">
         <v>0</v>
@@ -9729,7 +9743,7 @@
     </row>
     <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B184" s="10">
         <v>1</v>
@@ -9743,7 +9757,7 @@
     </row>
     <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B185" s="10">
         <v>0</v>
@@ -9757,7 +9771,7 @@
     </row>
     <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B186" s="10">
         <v>1</v>
@@ -9771,7 +9785,7 @@
     </row>
     <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B187" s="10">
         <v>0</v>
@@ -9785,7 +9799,7 @@
     </row>
     <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B188" s="10">
         <v>1</v>
@@ -9799,7 +9813,7 @@
     </row>
     <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B189" s="10">
         <v>0</v>
@@ -9813,7 +9827,7 @@
     </row>
     <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B190" s="10">
         <v>1</v>
@@ -9827,7 +9841,7 @@
     </row>
     <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B191" s="10">
         <v>0</v>
@@ -9841,7 +9855,7 @@
     </row>
     <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B192" s="10">
         <v>1</v>
@@ -9855,7 +9869,7 @@
     </row>
     <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B193" s="10">
         <v>0</v>
@@ -9869,7 +9883,7 @@
     </row>
     <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B194" s="10">
         <v>1</v>
@@ -9883,7 +9897,7 @@
     </row>
     <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B195" s="10">
         <v>0</v>
@@ -9897,7 +9911,7 @@
     </row>
     <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B196" s="10">
         <v>1</v>
@@ -9911,7 +9925,7 @@
     </row>
     <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B197" s="10">
         <v>0</v>
@@ -9925,7 +9939,7 @@
     </row>
     <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B198" s="10">
         <v>1</v>
@@ -9939,7 +9953,7 @@
     </row>
     <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B199" s="10">
         <v>0</v>
@@ -9953,7 +9967,7 @@
     </row>
     <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B200" s="10">
         <v>1</v>
@@ -9967,7 +9981,7 @@
     </row>
     <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B201" s="10">
         <v>0</v>
@@ -9981,7 +9995,7 @@
     </row>
     <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B202" s="10">
         <v>1</v>
@@ -9995,7 +10009,7 @@
     </row>
     <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B203" s="10">
         <v>0</v>
@@ -10009,7 +10023,7 @@
     </row>
     <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B204" s="10">
         <v>1</v>
@@ -10023,7 +10037,7 @@
     </row>
     <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B205" s="10">
         <v>0</v>
@@ -10037,7 +10051,7 @@
     </row>
     <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B206" s="10">
         <v>1</v>
@@ -10051,7 +10065,7 @@
     </row>
     <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B207" s="10">
         <v>0</v>
@@ -10065,7 +10079,7 @@
     </row>
     <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B208" s="10">
         <v>1</v>
@@ -10079,1314 +10093,1314 @@
     </row>
     <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B209" s="10">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B210" s="10">
         <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B211" s="10">
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B212" s="10">
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B213" s="10">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B214" s="10">
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B215" s="10">
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B216" s="10">
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B217" s="10">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B218" s="10">
         <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B219" s="10">
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="10">
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="10">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B222" s="10">
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B223" s="10">
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B224" s="10">
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B225" s="15">
         <v>1</v>
       </c>
       <c r="C225" t="s">
+        <v>616</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E225" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E225" s="26" t="s">
+      <c r="F225" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="F225" s="26" t="s">
+      <c r="G225" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="G225" s="26" t="s">
+      <c r="H225" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="H225" s="26" t="s">
+      <c r="I225" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="I225" s="26" t="s">
+      <c r="J225" s="33" t="s">
         <v>622</v>
-      </c>
-      <c r="J225" s="26" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B226" s="15">
         <v>1</v>
       </c>
       <c r="C226" t="s">
+        <v>623</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E226" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E226" s="26" t="s">
+      <c r="F226" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="F226" s="26" t="s">
+      <c r="G226" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="G226" s="26" t="s">
+      <c r="H226" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="H226" s="26" t="s">
+      <c r="I226" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="I226" s="26" t="s">
+      <c r="J226" s="33" t="s">
         <v>629</v>
-      </c>
-      <c r="J226" s="26" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B227" s="15">
         <v>2</v>
       </c>
       <c r="C227" t="s">
+        <v>444</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E227" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E227" s="26" t="s">
+      <c r="F227" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="F227" s="26" t="s">
+      <c r="G227" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="G227" s="26" t="s">
+      <c r="H227" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="H227" s="26" t="s">
+      <c r="I227" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="I227" s="26" t="s">
+      <c r="J227" s="33" t="s">
         <v>450</v>
-      </c>
-      <c r="J227" s="26" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B228" s="15">
         <v>3</v>
       </c>
       <c r="C228" t="s">
+        <v>451</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E228" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E228" s="26" t="s">
+      <c r="F228" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="F228" s="26" t="s">
+      <c r="G228" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="G228" s="26" t="s">
+      <c r="H228" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="H228" s="26" t="s">
+      <c r="I228" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="I228" s="26" t="s">
+      <c r="J228" s="33" t="s">
         <v>457</v>
-      </c>
-      <c r="J228" s="26" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B229" s="15">
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E229" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E229" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="F229" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="F229" s="26" t="s">
+      <c r="G229" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="G229" s="26" t="s">
+      <c r="H229" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="H229" s="26" t="s">
+      <c r="I229" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="I229" s="26" t="s">
+      <c r="J229" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="J229" s="26" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B230" s="15">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E230" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="E230" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F230" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F230" s="26" t="s">
+      <c r="G230" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="G230" s="26" t="s">
+      <c r="H230" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="H230" s="26" t="s">
+      <c r="I230" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="I230" s="26" t="s">
+      <c r="J230" s="33" t="s">
         <v>469</v>
-      </c>
-      <c r="J230" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B231" s="15">
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E231" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E231" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F231" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="F231" s="26" t="s">
+      <c r="G231" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="G231" s="26" t="s">
+      <c r="H231" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="H231" s="26" t="s">
+      <c r="I231" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="I231" s="26" t="s">
+      <c r="J231" s="33" t="s">
         <v>475</v>
-      </c>
-      <c r="J231" s="26" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B232" s="15">
         <v>1</v>
       </c>
       <c r="C232" t="s">
+        <v>623</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E232" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E232" s="26" t="s">
+      <c r="F232" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="F232" s="26" t="s">
+      <c r="G232" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="G232" s="26" t="s">
+      <c r="H232" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="H232" s="26" t="s">
+      <c r="I232" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="I232" s="26" t="s">
+      <c r="J232" s="33" t="s">
         <v>629</v>
-      </c>
-      <c r="J232" s="26" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B233" s="15">
         <v>3</v>
       </c>
       <c r="C233" t="s">
+        <v>451</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E233" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E233" s="26" t="s">
+      <c r="F233" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="F233" s="26" t="s">
+      <c r="G233" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="G233" s="26" t="s">
+      <c r="H233" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="H233" s="26" t="s">
+      <c r="I233" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="I233" s="26" t="s">
+      <c r="J233" s="33" t="s">
         <v>457</v>
-      </c>
-      <c r="J233" s="26" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B234" s="15">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E234" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="E234" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F234" s="26" t="s">
+      <c r="G234" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="G234" s="26" t="s">
+      <c r="H234" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="H234" s="26" t="s">
+      <c r="I234" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="I234" s="26" t="s">
+      <c r="J234" s="33" t="s">
         <v>469</v>
-      </c>
-      <c r="J234" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B235" s="15">
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E235" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E235" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F235" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="F235" s="26" t="s">
+      <c r="G235" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="G235" s="26" t="s">
+      <c r="H235" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="H235" s="26" t="s">
+      <c r="I235" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="I235" s="26" t="s">
+      <c r="J235" s="33" t="s">
         <v>475</v>
-      </c>
-      <c r="J235" s="26" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B236" s="15">
         <v>2</v>
       </c>
       <c r="C236" t="s">
+        <v>444</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E236" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E236" s="26" t="s">
+      <c r="F236" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="F236" s="26" t="s">
+      <c r="G236" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="G236" s="26" t="s">
+      <c r="H236" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="H236" s="26" t="s">
+      <c r="I236" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="I236" s="26" t="s">
+      <c r="J236" s="33" t="s">
         <v>450</v>
-      </c>
-      <c r="J236" s="26" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B237" s="15">
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E237" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E237" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F237" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F237" s="26" t="s">
+      <c r="G237" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="G237" s="26" t="s">
+      <c r="H237" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="H237" s="26" t="s">
+      <c r="I237" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="I237" s="26" t="s">
+      <c r="J237" s="33" t="s">
         <v>469</v>
-      </c>
-      <c r="J237" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B238" s="15">
         <v>1</v>
       </c>
       <c r="C238" t="s">
+        <v>476</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E238" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E238" s="26" t="s">
+      <c r="F238" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="F238" s="26" t="s">
+      <c r="G238" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="G238" s="26" t="s">
+      <c r="H238" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="H238" s="26" t="s">
+      <c r="I238" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="I238" s="26" t="s">
+      <c r="J238" s="33" t="s">
         <v>482</v>
-      </c>
-      <c r="J238" s="26" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B239" s="15">
         <v>1</v>
       </c>
       <c r="C239" t="s">
+        <v>483</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E239" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D239" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E239" s="26" t="s">
+      <c r="F239" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="F239" s="26" t="s">
+      <c r="G239" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="G239" s="26" t="s">
+      <c r="H239" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="H239" s="26" t="s">
+      <c r="I239" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="I239" s="26" t="s">
+      <c r="J239" s="33" t="s">
         <v>489</v>
-      </c>
-      <c r="J239" s="26" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B240" s="15">
         <v>2</v>
       </c>
       <c r="C240" t="s">
+        <v>490</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E240" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E240" s="26" t="s">
+      <c r="F240" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="F240" s="26" t="s">
+      <c r="G240" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="G240" s="26" t="s">
+      <c r="H240" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="H240" s="26" t="s">
+      <c r="I240" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="I240" s="26" t="s">
+      <c r="J240" s="33" t="s">
         <v>496</v>
-      </c>
-      <c r="J240" s="26" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B241" s="15">
         <v>3</v>
       </c>
       <c r="C241" t="s">
+        <v>497</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E241" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E241" s="26" t="s">
+      <c r="F241" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="F241" s="26" t="s">
+      <c r="G241" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="G241" s="26" t="s">
+      <c r="H241" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="H241" s="26" t="s">
+      <c r="I241" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="I241" s="26" t="s">
+      <c r="J241" s="33" t="s">
         <v>503</v>
-      </c>
-      <c r="J241" s="26" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="15">
         <v>4</v>
       </c>
       <c r="C242" t="s">
+        <v>504</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E242" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E242" s="26" t="s">
+      <c r="F242" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="F242" s="26" t="s">
+      <c r="G242" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="G242" s="26" t="s">
+      <c r="H242" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="H242" s="26" t="s">
+      <c r="I242" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="I242" s="26" t="s">
+      <c r="J242" s="33" t="s">
         <v>510</v>
-      </c>
-      <c r="J242" s="26" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="15">
         <v>5</v>
       </c>
       <c r="C243" t="s">
+        <v>511</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E243" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="D243" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E243" s="26" t="s">
+      <c r="F243" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="F243" s="26" t="s">
+      <c r="G243" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="G243" s="26" t="s">
+      <c r="H243" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="H243" s="26" t="s">
+      <c r="I243" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="I243" s="26" t="s">
+      <c r="J243" s="33" t="s">
         <v>517</v>
-      </c>
-      <c r="J243" s="26" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B244" s="15">
         <v>6</v>
       </c>
       <c r="C244" t="s">
+        <v>518</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E244" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E244" s="26" t="s">
+      <c r="F244" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="F244" s="26" t="s">
+      <c r="G244" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="G244" s="26" t="s">
+      <c r="H244" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="H244" s="26" t="s">
+      <c r="I244" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="I244" s="26" t="s">
+      <c r="J244" s="33" t="s">
         <v>524</v>
-      </c>
-      <c r="J244" s="26" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B245" s="15">
         <v>7</v>
       </c>
       <c r="C245" t="s">
+        <v>525</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E245" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D245" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E245" s="26" t="s">
+      <c r="F245" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="F245" s="26" t="s">
+      <c r="G245" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="G245" s="26" t="s">
+      <c r="H245" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="H245" s="26" t="s">
+      <c r="I245" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="I245" s="26" t="s">
+      <c r="J245" s="33" t="s">
         <v>531</v>
-      </c>
-      <c r="J245" s="26" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B246" s="15">
         <v>8</v>
       </c>
       <c r="C246" t="s">
+        <v>532</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E246" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="D246" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E246" s="26" t="s">
+      <c r="F246" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="F246" s="26" t="s">
+      <c r="G246" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="G246" s="26" t="s">
+      <c r="H246" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="H246" s="26" t="s">
+      <c r="I246" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="I246" s="26" t="s">
+      <c r="J246" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="J246" s="26" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B247" s="15">
         <v>0</v>
       </c>
       <c r="C247" t="s">
+        <v>539</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E247" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="D247" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E247" s="26" t="s">
+      <c r="F247" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="F247" s="26" t="s">
+      <c r="G247" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="G247" s="26" t="s">
+      <c r="H247" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="H247" s="26" t="s">
+      <c r="I247" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="I247" s="26" t="s">
+      <c r="J247" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="J247" s="26" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B248" s="15">
         <v>1</v>
       </c>
       <c r="C248" t="s">
+        <v>546</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E248" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="D248" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E248" s="26" t="s">
+      <c r="F248" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="F248" s="26" t="s">
+      <c r="G248" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="G248" s="26" t="s">
+      <c r="H248" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="H248" s="26" t="s">
+      <c r="I248" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="I248" s="26" t="s">
+      <c r="J248" s="33" t="s">
         <v>552</v>
-      </c>
-      <c r="J248" s="26" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="15">
         <v>2</v>
       </c>
       <c r="C249" t="s">
+        <v>553</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E249" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E249" s="26" t="s">
+      <c r="F249" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F249" s="26" t="s">
+      <c r="G249" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G249" s="26" t="s">
+      <c r="H249" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="H249" s="26" t="s">
+      <c r="I249" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="I249" s="26" t="s">
+      <c r="J249" s="33" t="s">
         <v>559</v>
-      </c>
-      <c r="J249" s="26" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B250" s="15">
         <v>3</v>
       </c>
       <c r="C250" t="s">
+        <v>560</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E250" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="D250" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E250" s="26" t="s">
+      <c r="F250" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F250" s="26" t="s">
+      <c r="G250" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="G250" s="26" t="s">
+      <c r="H250" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="H250" s="26" t="s">
+      <c r="I250" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="I250" s="26" t="s">
+      <c r="J250" s="33" t="s">
         <v>566</v>
-      </c>
-      <c r="J250" s="26" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B251" s="15">
         <v>1</v>
       </c>
       <c r="C251" t="s">
+        <v>567</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E251" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="D251" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E251" s="26" t="s">
+      <c r="F251" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="F251" s="26" t="s">
+      <c r="G251" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G251" s="26" t="s">
+      <c r="H251" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="H251" s="26" t="s">
+      <c r="I251" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I251" s="26" t="s">
+      <c r="J251" s="33" t="s">
         <v>573</v>
-      </c>
-      <c r="J251" s="26" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B252" s="15">
         <v>2</v>
       </c>
       <c r="C252" t="s">
+        <v>574</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E252" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E252" s="26" t="s">
+      <c r="F252" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F252" s="26" t="s">
+      <c r="G252" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="G252" s="26" t="s">
+      <c r="H252" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="H252" s="26" t="s">
+      <c r="I252" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="I252" s="26" t="s">
+      <c r="J252" s="33" t="s">
         <v>580</v>
-      </c>
-      <c r="J252" s="26" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B253" s="15">
         <v>3</v>
       </c>
       <c r="C253" t="s">
+        <v>581</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E253" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E253" s="26" t="s">
+      <c r="F253" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="F253" s="26" t="s">
+      <c r="G253" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="G253" s="26" t="s">
+      <c r="H253" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="H253" s="26" t="s">
+      <c r="I253" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="I253" s="26" t="s">
+      <c r="J253" s="33" t="s">
         <v>587</v>
-      </c>
-      <c r="J253" s="26" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B254" s="15">
         <v>4</v>
       </c>
       <c r="C254" t="s">
+        <v>588</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E254" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="D254" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E254" s="26" t="s">
+      <c r="F254" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="F254" s="26" t="s">
+      <c r="G254" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="G254" s="26" t="s">
+      <c r="H254" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="H254" s="26" t="s">
+      <c r="I254" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="I254" s="26" t="s">
+      <c r="J254" s="33" t="s">
         <v>594</v>
-      </c>
-      <c r="J254" s="26" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B255" s="15">
         <v>5</v>
       </c>
       <c r="C255" t="s">
+        <v>595</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E255" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="D255" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E255" s="26" t="s">
+      <c r="F255" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="F255" s="26" t="s">
+      <c r="G255" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="G255" s="26" t="s">
+      <c r="H255" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="H255" s="26" t="s">
+      <c r="I255" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="I255" s="26" t="s">
+      <c r="J255" s="33" t="s">
         <v>601</v>
-      </c>
-      <c r="J255" s="26" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B256" s="15">
         <v>6</v>
       </c>
       <c r="C256" t="s">
+        <v>602</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E256" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E256" s="26" t="s">
+      <c r="F256" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="F256" s="26" t="s">
+      <c r="G256" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="G256" s="26" t="s">
+      <c r="H256" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="H256" s="26" t="s">
+      <c r="I256" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="I256" s="26" t="s">
+      <c r="J256" s="33" t="s">
         <v>608</v>
-      </c>
-      <c r="J256" s="26" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B257" s="15">
         <v>7</v>
       </c>
       <c r="C257" t="s">
+        <v>679</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E257" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="F257" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="G257" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="H257" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E257" s="26" t="s">
+      <c r="I257" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="J257" s="33" t="s">
         <v>686</v>
-      </c>
-      <c r="F257" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="G257" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="H257" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="I257" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="J257" s="26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B258" s="15">
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E258" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="E258" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="F258" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="G258" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="H258" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="I258" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="J258" s="33" t="s">
         <v>692</v>
-      </c>
-      <c r="F258" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="G258" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H258" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="I258" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J258" s="26" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -11425,25 +11439,25 @@
         <v>165</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -11457,16 +11471,16 @@
         <v>288</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -11480,16 +11494,16 @@
         <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -11503,13 +11517,13 @@
         <v>288</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -11526,16 +11540,16 @@
         <v>289</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -11549,16 +11563,16 @@
         <v>289</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -11572,16 +11586,16 @@
         <v>290</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -11595,16 +11609,16 @@
         <v>290</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -11618,13 +11632,13 @@
         <v>290</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -11641,13 +11655,13 @@
         <v>290</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -11664,13 +11678,13 @@
         <v>290</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -11687,13 +11701,13 @@
         <v>290</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -11710,13 +11724,13 @@
         <v>290</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -11733,16 +11747,16 @@
         <v>290</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>702</v>
+        <v>341</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -11756,16 +11770,16 @@
         <v>290</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>702</v>
+        <v>341</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -11779,16 +11793,16 @@
         <v>290</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11802,16 +11816,16 @@
         <v>290</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11825,16 +11839,16 @@
         <v>290</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>704</v>
+        <v>341</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11848,16 +11862,16 @@
         <v>290</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>705</v>
+        <v>341</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11871,16 +11885,16 @@
         <v>290</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>706</v>
+        <v>341</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11894,16 +11908,16 @@
         <v>290</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>707</v>
+        <v>341</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -11917,19 +11931,19 @@
         <v>290</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>708</v>
+        <v>341</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>702</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11943,16 +11957,16 @@
         <v>290</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>709</v>
+        <v>341</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11966,16 +11980,16 @@
         <v>288</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>710</v>
+        <v>341</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11989,16 +12003,16 @@
         <v>290</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>711</v>
+        <v>341</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12012,16 +12026,16 @@
         <v>290</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>712</v>
+        <v>341</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12035,16 +12049,16 @@
         <v>290</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>713</v>
+        <v>341</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12058,16 +12072,16 @@
         <v>290</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>714</v>
+        <v>341</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12081,16 +12095,16 @@
         <v>290</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>715</v>
+        <v>341</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -12104,19 +12118,19 @@
         <v>290</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -12130,16 +12144,16 @@
         <v>290</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -12153,16 +12167,16 @@
         <v>290</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -12173,19 +12187,19 @@
         <v>297</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>717</v>
+        <v>340</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -12199,16 +12213,16 @@
         <v>290</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>716</v>
+        <v>341</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -12222,16 +12236,16 @@
         <v>290</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -12245,16 +12259,16 @@
         <v>290</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -12268,16 +12282,16 @@
         <v>290</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -12291,16 +12305,16 @@
         <v>290</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -12314,16 +12328,16 @@
         <v>290</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -12337,16 +12351,16 @@
         <v>290</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>153</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -12360,16 +12374,16 @@
         <v>290</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12383,16 +12397,16 @@
         <v>290</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -12406,16 +12420,16 @@
         <v>290</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -12429,16 +12443,16 @@
         <v>290</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -12452,16 +12466,16 @@
         <v>290</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -12475,16 +12489,16 @@
         <v>290</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -12498,13 +12512,13 @@
         <v>290</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -12521,13 +12535,13 @@
         <v>290</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -12544,16 +12558,16 @@
         <v>290</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12567,16 +12581,16 @@
         <v>290</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -12590,16 +12604,16 @@
         <v>290</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -12613,16 +12627,16 @@
         <v>290</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
